--- a/wash_P/ROU.xlsx
+++ b/wash_P/ROU.xlsx
@@ -84871,19 +84871,19 @@
         <v>0</v>
       </c>
       <c r="MF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MH27" t="n">
         <v>0</v>
       </c>
       <c r="MI27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MK27" t="n">
         <v>0</v>
@@ -91865,7 +91865,7 @@
         <v>0</v>
       </c>
       <c r="VR29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VS29" t="n">
         <v>0</v>
